--- a/medicine/Enfance/Sara_Mesa/Sara_Mesa.xlsx
+++ b/medicine/Enfance/Sara_Mesa/Sara_Mesa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sara Mesa, née en 1976 à Madrid dans la communauté de Madrid, est une romancière et poète espagnole.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle naît à Madrid en 1976 et grandit à Séville. 
 Elle commence par écrire de la poésie avant de se tourner vers la littérature pour adultes et enfants. En 2007, elle publie son premier recueil de poésie, Este jilguero agenda. En 2008, elle publie sa première œuvre destinée à la jeunesse, le recueil La sobriedad del galápago. En 2010, elle publie son premier roman, El trepanador de cerebros.
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans et recueils de nouvelles
-La sobriedad del galápago (2008)
+          <t>Romans et recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La sobriedad del galápago (2008)
 No es fácil ser verde (2009)
 El trepanador de cerebros (2010)
 Un incendio invisible (2011)
@@ -560,9 +579,7 @@
 Silencio administrativo (2019)
 Un amor (2020)
 Perrita country (2021)
-La familia (2022)
-Recueil de poésie
-Este jilguero agenda (2007)</t>
+La familia (2022)</t>
         </is>
       </c>
     </row>
@@ -587,10 +604,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueil de poésie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Este jilguero agenda (2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sara_Mesa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sara_Mesa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions notables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Finaliste du prix Herralde en 2012 pour Quatre à quatre (Cuatro por cuatro).
 Prix Ojo Critico (es) en 2015 pour Cicatrice (Cicatriz).</t>
